--- a/DKSalaries.xlsx
+++ b/DKSalaries.xlsx
@@ -63,7 +63,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -2274,17 +2274,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:M56"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" style="2" bestFit="1" customWidth="1"/>
@@ -2324,7 +2323,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>437</v>
       </c>
@@ -2360,7 +2359,7 @@
         <v>199.07699999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>438</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>436</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>443</v>
       </c>
@@ -2473,7 +2472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2599,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>446</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>440</v>
       </c>
@@ -2683,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>445</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>447</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>448</v>
       </c>
@@ -2809,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>442</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>441</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>444</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>449</v>
       </c>
@@ -3003,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>439</v>
       </c>
@@ -3041,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>262</v>
       </c>
@@ -3117,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>265</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>286</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>312</v>
       </c>
@@ -3235,7 +3234,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>288</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>310</v>
       </c>
@@ -3293,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>294</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>283</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>324</v>
       </c>
@@ -3380,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>285</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>278</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>305</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>307</v>
       </c>
@@ -3496,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>326</v>
       </c>
@@ -3525,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>302</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>290</v>
       </c>
@@ -3583,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>282</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>300</v>
       </c>
@@ -3641,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>316</v>
       </c>
@@ -3670,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>271</v>
       </c>
@@ -3699,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>333</v>
       </c>
@@ -3728,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>331</v>
       </c>
@@ -3757,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>325</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>320</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>329</v>
       </c>
@@ -3844,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>287</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>339</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>317</v>
       </c>
@@ -3931,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>318</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>334</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>330</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>332</v>
       </c>
@@ -4105,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>264</v>
       </c>
@@ -4163,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>267</v>
       </c>
@@ -4192,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>327</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>277</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>301</v>
       </c>
@@ -4279,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>292</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>299</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>347</v>
       </c>
@@ -4366,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>319</v>
       </c>
@@ -4395,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>351</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>350</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>396</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>274</v>
       </c>
@@ -4511,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>354</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>280</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>399</v>
       </c>
@@ -4598,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>336</v>
       </c>
@@ -4627,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>341</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>346</v>
       </c>
@@ -4685,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>356</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>314</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>367</v>
       </c>
@@ -4772,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>354</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>369</v>
       </c>
@@ -4830,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>390</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>361</v>
       </c>
@@ -4888,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>377</v>
       </c>
@@ -4917,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>372</v>
       </c>
@@ -4946,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>309</v>
       </c>
@@ -4975,7 +4974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>381</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>284</v>
       </c>
@@ -5033,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>387</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>352</v>
       </c>
@@ -5091,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>400</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>345</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>295</v>
       </c>
@@ -5178,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>389</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>425</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>375</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>378</v>
       </c>
@@ -5294,7 +5293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>349</v>
       </c>
@@ -5323,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>364</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>419</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>380</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>376</v>
       </c>
@@ -5439,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>384</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>397</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>416</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>269</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>343</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>355</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>335</v>
       </c>
@@ -5671,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>358</v>
       </c>
@@ -5700,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>311</v>
       </c>
@@ -5729,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>404</v>
       </c>
@@ -5758,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>344</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>363</v>
       </c>
@@ -5816,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>428</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>382</v>
       </c>
@@ -5874,7 +5873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>403</v>
       </c>
@@ -5903,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>313</v>
       </c>
@@ -5932,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>411</v>
       </c>
@@ -5961,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>427</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>430</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>433</v>
       </c>
@@ -6048,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>408</v>
       </c>
@@ -6077,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>418</v>
       </c>
@@ -6106,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>421</v>
       </c>
@@ -6135,7 +6134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>417</v>
       </c>
@@ -6164,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>435</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>431</v>
       </c>
@@ -6222,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>432</v>
       </c>
@@ -6251,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>434</v>
       </c>
@@ -6280,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>429</v>
       </c>
@@ -6309,7 +6308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>413</v>
       </c>
@@ -6338,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>426</v>
       </c>
@@ -6367,7 +6366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>258</v>
       </c>
@@ -6396,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>266</v>
       </c>
@@ -6425,7 +6424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>279</v>
       </c>
@@ -6483,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>276</v>
       </c>
@@ -6512,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>261</v>
       </c>
@@ -6541,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>272</v>
       </c>
@@ -6570,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>298</v>
       </c>
@@ -6599,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>270</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>259</v>
       </c>
@@ -6657,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>424</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>289</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>337</v>
       </c>
@@ -6744,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>338</v>
       </c>
@@ -6773,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>258</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>273</v>
       </c>
@@ -6831,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>303</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>297</v>
       </c>
@@ -6889,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>263</v>
       </c>
@@ -6918,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>275</v>
       </c>
@@ -6976,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>342</v>
       </c>
@@ -7034,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>340</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>296</v>
       </c>
@@ -7092,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>322</v>
       </c>
@@ -7121,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>274</v>
       </c>
@@ -7150,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>402</v>
       </c>
@@ -7179,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>323</v>
       </c>
@@ -7208,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>308</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>328</v>
       </c>
@@ -7266,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>291</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>293</v>
       </c>
@@ -7324,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>393</v>
       </c>
@@ -7353,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>406</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>379</v>
       </c>
@@ -7411,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>370</v>
       </c>
@@ -7440,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>353</v>
       </c>
@@ -7469,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>360</v>
       </c>
@@ -7498,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>365</v>
       </c>
@@ -7527,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>357</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>321</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>385</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>387</v>
       </c>
@@ -7643,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>373</v>
       </c>
@@ -7672,7 +7671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>388</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>409</v>
       </c>
@@ -7730,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>386</v>
       </c>
@@ -7759,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>383</v>
       </c>
@@ -7788,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>366</v>
       </c>
@@ -7817,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>374</v>
       </c>
@@ -7846,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>362</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>414</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>420</v>
       </c>
@@ -7933,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>398</v>
       </c>
@@ -7962,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>401</v>
       </c>
@@ -7991,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>391</v>
       </c>
@@ -8020,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>394</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>315</v>
       </c>
@@ -8078,7 +8077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>371</v>
       </c>
@@ -8107,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>359</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>405</v>
       </c>
@@ -8165,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>407</v>
       </c>
@@ -8194,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>415</v>
       </c>
@@ -8223,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>423</v>
       </c>
@@ -8252,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>395</v>
       </c>
@@ -8281,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>410</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>422</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>412</v>
       </c>
@@ -8369,13 +8368,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M201">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8386,7 +8378,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
